--- a/RevitDynamo/15files/AllTogether.xlsx
+++ b/RevitDynamo/15files/AllTogether.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmsil\Desktop\bsp3\RevitDynamo\15files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65749C2C-DBAA-4DCD-A75E-BDA3C2F1B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D86091-1AD9-4774-8AFC-CF177ADEA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16635" yWindow="5535" windowWidth="19605" windowHeight="15345" xr2:uid="{79F8FA3C-B5BD-4925-A4D7-8184B102EEA1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>StairsID</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>81.157,</t>
+  </si>
+  <si>
+    <t>-1351.568,</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACBDD-1880-436E-8556-D2B13A8B1992}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +631,62 @@
       </c>
       <c r="R2">
         <v>1354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1441842</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1354.00229339001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>37.633630149362503</v>
+      </c>
+      <c r="G3" s="1">
+        <v>39.5255415471022</v>
+      </c>
+      <c r="H3" s="1">
+        <v>302</v>
+      </c>
+      <c r="I3" s="1">
+        <v>16.162337518482101</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20526.161</v>
+      </c>
+      <c r="K3" s="1">
+        <v>23487.457999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19174.593000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>23568.615000000002</v>
+      </c>
+      <c r="O3" s="1">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1354.002</v>
       </c>
     </row>
   </sheetData>
